--- a/dataset/2nd_data/myeong/myeong_growth_detail_data.xlsx
+++ b/dataset/2nd_data/myeong/myeong_growth_detail_data.xlsx
@@ -429,14 +429,14 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>leaf_area</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>suitable_growth_length</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>leaf_area</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>suitable_thickness</t>
@@ -454,7 +454,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_number</t>
+          <t>suitable_number_of_leaf</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O2" t="n">
         <v>-1</v>
@@ -596,10 +596,10 @@
         <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>-1</v>
+        <v>0.6822933286713286</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6822933286713286</v>
+        <v>-1</v>
       </c>
       <c r="O3" t="n">
         <v>-1</v>
@@ -669,10 +669,10 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>-1</v>
+        <v>0.6593212867132867</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6593212867132867</v>
+        <v>-1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O5" t="n">
         <v>-1</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-1</v>
+        <v>0.7426837482517482</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7426837482517482</v>
+        <v>-1</v>
       </c>
       <c r="O6" t="n">
         <v>-1</v>
@@ -888,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-1</v>
+        <v>0.4319691188811189</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4319691188811189</v>
+        <v>-1</v>
       </c>
       <c r="O7" t="n">
         <v>-1</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-1</v>
+        <v>0.6041071888111889</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6041071888111889</v>
+        <v>-1</v>
       </c>
       <c r="O8" t="n">
         <v>-1</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-1</v>
+        <v>0.6934241118881119</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6934241118881119</v>
+        <v>-1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-1</v>
+        <v>0.8525706293706294</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8525706293706294</v>
+        <v>-1</v>
       </c>
       <c r="O10" t="n">
         <v>-1</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1</v>
+        <v>0.4417127832167832</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4417127832167832</v>
+        <v>-1</v>
       </c>
       <c r="O11" t="n">
         <v>-1</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-1</v>
+        <v>0.7145353846153847</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7145353846153847</v>
+        <v>-1</v>
       </c>
       <c r="O12" t="n">
         <v>-1</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1</v>
+        <v>0.724076055944056</v>
       </c>
       <c r="N13" t="n">
-        <v>0.724076055944056</v>
+        <v>-1</v>
       </c>
       <c r="O13" t="n">
         <v>-1</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1</v>
+        <v>0.8390377622377622</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8390377622377622</v>
+        <v>-1</v>
       </c>
       <c r="O14" t="n">
         <v>-1</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-1</v>
+        <v>0.5901006713286714</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5901006713286714</v>
+        <v>-1</v>
       </c>
       <c r="O15" t="n">
         <v>-1</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1</v>
+        <v>0.4547043356643357</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4547043356643357</v>
+        <v>-1</v>
       </c>
       <c r="O16" t="n">
         <v>-1</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1</v>
+        <v>0.5066705454545455</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5066705454545455</v>
+        <v>-1</v>
       </c>
       <c r="O17" t="n">
         <v>-1</v>
@@ -1691,10 +1691,10 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>-1</v>
+        <v>0.4736503496503496</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4736503496503496</v>
+        <v>-1</v>
       </c>
       <c r="O18" t="n">
         <v>-1</v>
@@ -1764,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>-1</v>
+        <v>0.785582937062937</v>
       </c>
       <c r="N19" t="n">
-        <v>0.785582937062937</v>
+        <v>-1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>0.6685236363636363</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6685236363636363</v>
+        <v>-1</v>
       </c>
       <c r="O20" t="n">
         <v>-1</v>
@@ -1910,10 +1910,10 @@
         <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>-1</v>
+        <v>0.7064156643356643</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7064156643356643</v>
+        <v>-1</v>
       </c>
       <c r="O21" t="n">
         <v>-1</v>
@@ -1983,10 +1983,10 @@
         <v>4.4</v>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>0.7881541818181818</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7881541818181818</v>
+        <v>-1</v>
       </c>
       <c r="O22" t="n">
         <v>-1</v>
@@ -2056,10 +2056,10 @@
         <v>2.7</v>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>0.5115423776223776</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5115423776223776</v>
+        <v>-1</v>
       </c>
       <c r="O23" t="n">
         <v>-1</v>
@@ -2129,10 +2129,10 @@
         <v>3.9</v>
       </c>
       <c r="M24" t="n">
-        <v>-1</v>
+        <v>0.669876923076923</v>
       </c>
       <c r="N24" t="n">
-        <v>0.669876923076923</v>
+        <v>-1</v>
       </c>
       <c r="O24" t="n">
         <v>-1</v>
@@ -2202,10 +2202,10 @@
         <v>4.4</v>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>0.7383532307692309</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7383532307692309</v>
+        <v>-1</v>
       </c>
       <c r="O25" t="n">
         <v>-1</v>
@@ -2275,10 +2275,10 @@
         <v>3.8</v>
       </c>
       <c r="M26" t="n">
-        <v>-1</v>
+        <v>0.9648934265734266</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9648934265734266</v>
+        <v>-1</v>
       </c>
       <c r="O26" t="n">
         <v>-1</v>
@@ -2348,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>-1</v>
+        <v>0.5239926153846154</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5239926153846154</v>
+        <v>-1</v>
       </c>
       <c r="O27" t="n">
         <v>-1</v>
@@ -2421,10 +2421,10 @@
         <v>2.5</v>
       </c>
       <c r="M28" t="n">
-        <v>-1</v>
+        <v>0.67732</v>
       </c>
       <c r="N28" t="n">
-        <v>0.67732</v>
+        <v>-1</v>
       </c>
       <c r="O28" t="n">
         <v>-1</v>
@@ -2494,10 +2494,10 @@
         <v>3.3</v>
       </c>
       <c r="M29" t="n">
-        <v>-1</v>
+        <v>0.8661034965034965</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8661034965034965</v>
+        <v>-1</v>
       </c>
       <c r="O29" t="n">
         <v>-1</v>
@@ -2567,10 +2567,10 @@
         <v>3.1</v>
       </c>
       <c r="M30" t="n">
-        <v>-1</v>
+        <v>0.9439174825174825</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9439174825174825</v>
+        <v>-1</v>
       </c>
       <c r="O30" t="n">
         <v>-1</v>
@@ -2640,10 +2640,10 @@
         <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.7740123356643357</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7740123356643357</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>-1</v>
@@ -2713,10 +2713,10 @@
         <v>2.9</v>
       </c>
       <c r="M32" t="n">
-        <v>-1</v>
+        <v>0.4381265734265734</v>
       </c>
       <c r="N32" t="n">
-        <v>0.4381265734265734</v>
+        <v>-1</v>
       </c>
       <c r="O32" t="n">
         <v>-1</v>
@@ -2786,10 +2786,10 @@
         <v>3.7</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.5846198601398601</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5846198601398601</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>-1</v>
@@ -2859,10 +2859,10 @@
         <v>2.7</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.3617335384615385</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3617335384615385</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>-1</v>
@@ -2932,10 +2932,10 @@
         <v>2.5</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.3800029090909091</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3800029090909091</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>-1</v>
@@ -3005,10 +3005,10 @@
         <v>4.2</v>
       </c>
       <c r="M36" t="n">
-        <v>-1</v>
+        <v>0.7388945454545455</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7388945454545455</v>
+        <v>-1</v>
       </c>
       <c r="O36" t="n">
         <v>-1</v>
@@ -3078,10 +3078,10 @@
         <v>3.2</v>
       </c>
       <c r="M37" t="n">
-        <v>-1</v>
+        <v>0.4465846153846154</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4465846153846154</v>
+        <v>-1</v>
       </c>
       <c r="O37" t="n">
         <v>-1</v>
@@ -3151,10 +3151,10 @@
         <v>3.1</v>
       </c>
       <c r="M38" t="n">
-        <v>-1</v>
+        <v>0.6884846153846154</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6884846153846154</v>
+        <v>-1</v>
       </c>
       <c r="O38" t="n">
         <v>-1</v>
@@ -3224,10 +3224,10 @@
         <v>3.3</v>
       </c>
       <c r="M39" t="n">
-        <v>-1</v>
+        <v>0.3523958601398601</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3523958601398601</v>
+        <v>-1</v>
       </c>
       <c r="O39" t="n">
         <v>-1</v>
@@ -3297,10 +3297,10 @@
         <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>-1</v>
+        <v>0.7502621538461538</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7502621538461538</v>
+        <v>-1</v>
       </c>
       <c r="O40" t="n">
         <v>-1</v>
@@ -3370,10 +3370,10 @@
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>-1</v>
+        <v>0.5403673846153846</v>
       </c>
       <c r="N41" t="n">
-        <v>0.5403673846153846</v>
+        <v>-1</v>
       </c>
       <c r="O41" t="n">
         <v>-1</v>
@@ -3443,10 +3443,10 @@
         <v>3.2</v>
       </c>
       <c r="M42" t="n">
-        <v>-1</v>
+        <v>0.6430141818181818</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6430141818181818</v>
+        <v>-1</v>
       </c>
       <c r="O42" t="n">
         <v>-1</v>
@@ -3516,10 +3516,10 @@
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>-1</v>
+        <v>0.5693953846153846</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5693953846153846</v>
+        <v>-1</v>
       </c>
       <c r="O43" t="n">
         <v>-1</v>
@@ -3589,10 +3589,10 @@
         <v>2.6</v>
       </c>
       <c r="M44" t="n">
-        <v>-1</v>
+        <v>0.3126092307692308</v>
       </c>
       <c r="N44" t="n">
-        <v>0.3126092307692308</v>
+        <v>-1</v>
       </c>
       <c r="O44" t="n">
         <v>-1</v>
@@ -3662,10 +3662,10 @@
         <v>2.8</v>
       </c>
       <c r="M45" t="n">
-        <v>-1</v>
+        <v>0.5359015384615385</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5359015384615385</v>
+        <v>-1</v>
       </c>
       <c r="O45" t="n">
         <v>-1</v>
@@ -3735,10 +3735,10 @@
         <v>2.4</v>
       </c>
       <c r="M46" t="n">
-        <v>-1</v>
+        <v>0.4433367272727272</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4433367272727272</v>
+        <v>-1</v>
       </c>
       <c r="O46" t="n">
         <v>-1</v>
@@ -3808,10 +3808,10 @@
         <v>2.8</v>
       </c>
       <c r="M47" t="n">
-        <v>-1</v>
+        <v>0.8336246153846154</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8336246153846154</v>
+        <v>-1</v>
       </c>
       <c r="O47" t="n">
         <v>-1</v>
@@ -3881,10 +3881,10 @@
         <v>2.8</v>
       </c>
       <c r="M48" t="n">
-        <v>-1</v>
+        <v>0.3215409230769231</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3215409230769231</v>
+        <v>-1</v>
       </c>
       <c r="O48" t="n">
         <v>-1</v>
@@ -3954,10 +3954,10 @@
         <v>2.9</v>
       </c>
       <c r="M49" t="n">
-        <v>-1</v>
+        <v>0.5967994405594406</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5967994405594406</v>
+        <v>-1</v>
       </c>
       <c r="O49" t="n">
         <v>-1</v>
@@ -4027,10 +4027,10 @@
         <v>4.3</v>
       </c>
       <c r="M50" t="n">
-        <v>-1</v>
+        <v>0.375537062937063</v>
       </c>
       <c r="N50" t="n">
-        <v>0.375537062937063</v>
+        <v>-1</v>
       </c>
       <c r="O50" t="n">
         <v>-1</v>
@@ -4100,10 +4100,10 @@
         <v>4.2</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.4547043356643357</v>
       </c>
       <c r="N51" t="n">
-        <v>0.4547043356643357</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>-1</v>
@@ -4173,10 +4173,10 @@
         <v>3.8</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.3818298461538462</v>
       </c>
       <c r="N52" t="n">
-        <v>0.3818298461538462</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>-1</v>
@@ -4246,10 +4246,10 @@
         <v>2.6</v>
       </c>
       <c r="M53" t="n">
-        <v>-1</v>
+        <v>0.3334498461538462</v>
       </c>
       <c r="N53" t="n">
-        <v>0.3334498461538462</v>
+        <v>-1</v>
       </c>
       <c r="O53" t="n">
         <v>-1</v>
@@ -4319,10 +4319,10 @@
         <v>3.1</v>
       </c>
       <c r="M54" t="n">
-        <v>-1</v>
+        <v>0.4713497622377622</v>
       </c>
       <c r="N54" t="n">
-        <v>0.4713497622377622</v>
+        <v>-1</v>
       </c>
       <c r="O54" t="n">
         <v>-1</v>
@@ -4392,10 +4392,10 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>-1</v>
+        <v>0.1897984615384615</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1897984615384615</v>
+        <v>-1</v>
       </c>
       <c r="O55" t="n">
         <v>-1</v>
@@ -4465,10 +4465,10 @@
         <v>2.5</v>
       </c>
       <c r="M56" t="n">
-        <v>-1</v>
+        <v>0.3078727272727273</v>
       </c>
       <c r="N56" t="n">
-        <v>0.3078727272727273</v>
+        <v>-1</v>
       </c>
       <c r="O56" t="n">
         <v>-1</v>
@@ -4538,10 +4538,10 @@
         <v>2.8</v>
       </c>
       <c r="M57" t="n">
-        <v>-1</v>
+        <v>0.2619963076923077</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2619963076923077</v>
+        <v>-1</v>
       </c>
       <c r="O57" t="n">
         <v>-1</v>
@@ -4611,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>-1</v>
+        <v>0.2295850909090909</v>
       </c>
       <c r="N58" t="n">
-        <v>0.2295850909090909</v>
+        <v>-1</v>
       </c>
       <c r="O58" t="n">
         <v>-1</v>
@@ -4684,10 +4684,10 @@
         <v>3.6</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.2517113286713287</v>
       </c>
       <c r="N59" t="n">
-        <v>0.2517113286713287</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>-1</v>
@@ -4757,10 +4757,10 @@
         <v>3.6</v>
       </c>
       <c r="M60" t="n">
-        <v>-1</v>
+        <v>0.3036775384615384</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3036775384615384</v>
+        <v>-1</v>
       </c>
       <c r="O60" t="n">
         <v>-1</v>
@@ -4830,10 +4830,10 @@
         <v>2.7</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.2814836363636364</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2814836363636364</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>-1</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>-1</v>
+        <v>0.08931692307692309</v>
       </c>
       <c r="N62" t="n">
-        <v>0.08931692307692309</v>
+        <v>-1</v>
       </c>
       <c r="O62" t="n">
         <v>-1</v>
@@ -4976,10 +4976,10 @@
         <v>2.5</v>
       </c>
       <c r="M63" t="n">
-        <v>-1</v>
+        <v>0.5115423776223776</v>
       </c>
       <c r="N63" t="n">
-        <v>0.5115423776223776</v>
+        <v>-1</v>
       </c>
       <c r="O63" t="n">
         <v>-1</v>
@@ -5049,10 +5049,10 @@
         <v>2.1</v>
       </c>
       <c r="M64" t="n">
-        <v>-1</v>
+        <v>0.02009630769230769</v>
       </c>
       <c r="N64" t="n">
-        <v>0.02009630769230769</v>
+        <v>-1</v>
       </c>
       <c r="O64" t="n">
         <v>-1</v>
@@ -5122,10 +5122,10 @@
         <v>2.5</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.2657178461538461</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2657178461538461</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>-1</v>
@@ -5195,10 +5195,10 @@
         <v>2.5</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.2638909090909091</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2638909090909091</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>-1</v>
@@ -5268,10 +5268,10 @@
         <v>2.8</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.3851792307692308</v>
       </c>
       <c r="N67" t="n">
-        <v>0.3851792307692308</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>-1</v>
@@ -5341,10 +5341,10 @@
         <v>2.3</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.4628240559440559</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4628240559440559</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>-1</v>
@@ -5414,10 +5414,10 @@
         <v>2.9</v>
       </c>
       <c r="M69" t="n">
-        <v>-1</v>
+        <v>0.3377803636363637</v>
       </c>
       <c r="N69" t="n">
-        <v>0.3377803636363637</v>
+        <v>-1</v>
       </c>
       <c r="O69" t="n">
         <v>-1</v>
@@ -5487,10 +5487,10 @@
         <v>2.6</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.4599009566433567</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4599009566433567</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>-1</v>
@@ -5560,10 +5560,10 @@
         <v>1.6</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.1867535664335664</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1867535664335664</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>-1</v>
@@ -5633,10 +5633,10 @@
         <v>2.2</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.3542904615384616</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3542904615384616</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>-1</v>
@@ -5706,10 +5706,10 @@
         <v>2.3</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.1989331468531469</v>
       </c>
       <c r="N73" t="n">
-        <v>0.1989331468531469</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>-1</v>
@@ -5779,10 +5779,10 @@
         <v>1.3</v>
       </c>
       <c r="M74" t="n">
-        <v>-1</v>
+        <v>0.04547043356643356</v>
       </c>
       <c r="N74" t="n">
-        <v>0.04547043356643356</v>
+        <v>-1</v>
       </c>
       <c r="O74" t="n">
         <v>-1</v>
@@ -5852,10 +5852,10 @@
         <v>1.3</v>
       </c>
       <c r="M75" t="n">
-        <v>-1</v>
+        <v>0.1903059440559441</v>
       </c>
       <c r="N75" t="n">
-        <v>0.1903059440559441</v>
+        <v>-1</v>
       </c>
       <c r="O75" t="n">
         <v>-1</v>
@@ -5925,10 +5925,10 @@
         <v>2.5</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.2841902097902098</v>
       </c>
       <c r="N76" t="n">
-        <v>0.2841902097902098</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>-1</v>
@@ -5998,10 +5998,10 @@
         <v>1.8</v>
       </c>
       <c r="M77" t="n">
-        <v>-1</v>
+        <v>0.07578405594405595</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07578405594405595</v>
+        <v>-1</v>
       </c>
       <c r="O77" t="n">
         <v>-1</v>
@@ -6071,10 +6071,10 @@
         <v>2.8</v>
       </c>
       <c r="M78" t="n">
-        <v>-1</v>
+        <v>0.1250436923076923</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1250436923076923</v>
+        <v>-1</v>
       </c>
       <c r="O78" t="n">
         <v>-1</v>
@@ -6144,10 +6144,10 @@
         <v>2.6</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.3795969230769231</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3795969230769231</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>-1</v>
@@ -6217,10 +6217,10 @@
         <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.2858141538461538</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2858141538461538</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>-1</v>
@@ -6290,10 +6290,10 @@
         <v>2.5</v>
       </c>
       <c r="M81" t="n">
-        <v>-1</v>
+        <v>0.2121953566433566</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2121953566433566</v>
+        <v>-1</v>
       </c>
       <c r="O81" t="n">
         <v>-1</v>
@@ -6363,10 +6363,10 @@
         <v>2.1</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0.5716283076923077</v>
       </c>
       <c r="N82" t="n">
-        <v>0.5716283076923077</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>-1</v>
@@ -6436,10 +6436,10 @@
         <v>2.4</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0.7839251608391609</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7839251608391609</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
         <v>-1</v>
@@ -6509,10 +6509,10 @@
         <v>2.4</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0.7407891468531469</v>
       </c>
       <c r="N84" t="n">
-        <v>0.7407891468531469</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
         <v>-1</v>
@@ -6582,10 +6582,10 @@
         <v>2.7</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0.5237219580419581</v>
       </c>
       <c r="N85" t="n">
-        <v>0.5237219580419581</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>-1</v>
@@ -6655,10 +6655,10 @@
         <v>2.4</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0.7186629090909091</v>
       </c>
       <c r="N86" t="n">
-        <v>0.7186629090909091</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>-1</v>
@@ -6728,10 +6728,10 @@
         <v>2.6</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0.4925963636363637</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4925963636363637</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
         <v>-1</v>
@@ -6801,10 +6801,10 @@
         <v>1.8</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0.3910998601398601</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3910998601398601</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
         <v>-1</v>
@@ -6874,10 +6874,10 @@
         <v>1.6</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0.3085493706293706</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3085493706293706</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>-1</v>
@@ -6947,10 +6947,10 @@
         <v>2.4</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.1563046153846154</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1563046153846154</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
         <v>-1</v>
@@ -7020,10 +7020,10 @@
         <v>2.8</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.554170909090909</v>
       </c>
       <c r="N91" t="n">
-        <v>0.554170909090909</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>-1</v>
@@ -7093,10 +7093,10 @@
         <v>1.9</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0.5314356923076923</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5314356923076923</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
         <v>-1</v>
@@ -7166,10 +7166,10 @@
         <v>2.8</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0.5582307692307692</v>
       </c>
       <c r="N93" t="n">
-        <v>0.5582307692307692</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
         <v>-1</v>
@@ -7239,10 +7239,10 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>-1</v>
+        <v>0.1491998601398601</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1491998601398601</v>
+        <v>-1</v>
       </c>
       <c r="O94" t="n">
         <v>-1</v>
@@ -7312,10 +7312,10 @@
         <v>2.4</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0.5882737342657343</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5882737342657343</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
         <v>-1</v>
@@ -7385,10 +7385,10 @@
         <v>2.4</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0.4793341538461538</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4793341538461538</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
         <v>-1</v>
@@ -7458,10 +7458,10 @@
         <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0.2533352727272727</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2533352727272727</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
         <v>-1</v>
@@ -7531,10 +7531,10 @@
         <v>2.1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0.6235945174825175</v>
       </c>
       <c r="N98" t="n">
-        <v>0.6235945174825175</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
         <v>-1</v>
@@ -7604,10 +7604,10 @@
         <v>2.4</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0.6546524475524476</v>
       </c>
       <c r="N99" t="n">
-        <v>0.6546524475524476</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
         <v>-1</v>
@@ -7677,10 +7677,10 @@
         <v>2.2</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0.7578405594405594</v>
       </c>
       <c r="N100" t="n">
-        <v>0.7578405594405594</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
         <v>-1</v>
@@ -7750,10 +7750,10 @@
         <v>2.2</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0.3844010909090909</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3844010909090909</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
         <v>-1</v>
@@ -7823,10 +7823,10 @@
         <v>2.2</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0.8769297902097902</v>
       </c>
       <c r="N102" t="n">
-        <v>0.8769297902097902</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
         <v>-1</v>
@@ -7896,10 +7896,10 @@
         <v>2.3</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0.6051898181818183</v>
       </c>
       <c r="N103" t="n">
-        <v>0.6051898181818183</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
         <v>-1</v>
@@ -7969,10 +7969,10 @@
         <v>2.1</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0.4525390769230769</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4525390769230769</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
         <v>-1</v>
@@ -8042,10 +8042,10 @@
         <v>2.5</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0.406392</v>
       </c>
       <c r="N105" t="n">
-        <v>0.406392</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
         <v>-1</v>
@@ -8115,10 +8115,10 @@
         <v>1.4</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0.3946184055944056</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3946184055944056</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
         <v>-1</v>
@@ -8188,10 +8188,10 @@
         <v>2.2</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0.6475476923076924</v>
       </c>
       <c r="N107" t="n">
-        <v>0.6475476923076924</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
         <v>-1</v>
@@ -8261,10 +8261,10 @@
         <v>1.8</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>0.7688021818181818</v>
       </c>
       <c r="N108" t="n">
-        <v>0.7688021818181818</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
         <v>-1</v>
@@ -8334,10 +8334,10 @@
         <v>2.3</v>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>0.8586604195804195</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8586604195804195</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
         <v>-1</v>
@@ -8407,10 +8407,10 @@
         <v>4.1</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>0.6135463636363636</v>
       </c>
       <c r="N110" t="n">
-        <v>0.6135463636363636</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
         <v>-1</v>
@@ -8480,10 +8480,10 @@
         <v>2.9</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0.8967216083916084</v>
       </c>
       <c r="N111" t="n">
-        <v>0.8967216083916084</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
         <v>-1</v>
@@ -8553,10 +8553,10 @@
         <v>1.8</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0.529135104895105</v>
       </c>
       <c r="N112" t="n">
-        <v>0.529135104895105</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
         <v>-1</v>
@@ -8626,10 +8626,10 @@
         <v>2.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0.6430818461538462</v>
       </c>
       <c r="N113" t="n">
-        <v>0.6430818461538462</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
         <v>-1</v>
@@ -8699,10 +8699,10 @@
         <v>2</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>0.7307748251748252</v>
       </c>
       <c r="N114" t="n">
-        <v>0.7307748251748252</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
         <v>-1</v>
@@ -8772,10 +8772,10 @@
         <v>2.1</v>
       </c>
       <c r="M115" t="n">
-        <v>-1</v>
+        <v>0.5629672727272728</v>
       </c>
       <c r="N115" t="n">
-        <v>0.5629672727272728</v>
+        <v>-1</v>
       </c>
       <c r="O115" t="n">
         <v>-1</v>
@@ -8845,10 +8845,10 @@
         <v>1.7</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>0.608979020979021</v>
       </c>
       <c r="N116" t="n">
-        <v>0.608979020979021</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
         <v>-1</v>
@@ -8918,10 +8918,10 @@
         <v>1.6</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>0.4774395524475524</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4774395524475524</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>-1</v>
@@ -8991,10 +8991,10 @@
         <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>0.8119720279720279</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8119720279720279</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
         <v>-1</v>
@@ -9064,10 +9064,10 @@
         <v>1.8</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>0.5967994405594406</v>
       </c>
       <c r="N119" t="n">
-        <v>0.5967994405594406</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
         <v>-1</v>
@@ -9137,10 +9137,10 @@
         <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>-1</v>
+        <v>0.9500072727272727</v>
       </c>
       <c r="N120" t="n">
-        <v>0.9500072727272727</v>
+        <v>-1</v>
       </c>
       <c r="O120" t="n">
         <v>-1</v>
@@ -9210,10 +9210,10 @@
         <v>2.2</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>0.4823113846153846</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4823113846153846</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
         <v>-1</v>
@@ -9283,10 +9283,10 @@
         <v>1.4</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>0.2545532307692308</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2545532307692308</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
         <v>-1</v>
@@ -9356,10 +9356,10 @@
         <v>1.6</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>0.6100616503496504</v>
       </c>
       <c r="N123" t="n">
-        <v>0.6100616503496504</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
         <v>-1</v>
@@ -9429,10 +9429,10 @@
         <v>1.6</v>
       </c>
       <c r="M124" t="n">
-        <v>-1</v>
+        <v>0.7729973706293706</v>
       </c>
       <c r="N124" t="n">
-        <v>0.7729973706293706</v>
+        <v>-1</v>
       </c>
       <c r="O124" t="n">
         <v>-1</v>
@@ -9502,10 +9502,10 @@
         <v>1.5</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>0.6723128391608392</v>
       </c>
       <c r="N125" t="n">
-        <v>0.6723128391608392</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>-1</v>
@@ -9575,10 +9575,10 @@
         <v>1.4</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>0.2977230769230769</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2977230769230769</v>
+        <v>1</v>
       </c>
       <c r="O126" t="n">
         <v>-1</v>
@@ -9648,10 +9648,10 @@
         <v>1.8</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>0.5656738461538463</v>
       </c>
       <c r="N127" t="n">
-        <v>0.5656738461538463</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>-1</v>
@@ -9721,10 +9721,10 @@
         <v>1.8</v>
       </c>
       <c r="M128" t="n">
-        <v>-1</v>
+        <v>0.5967994405594406</v>
       </c>
       <c r="N128" t="n">
-        <v>0.5967994405594406</v>
+        <v>-1</v>
       </c>
       <c r="O128" t="n">
         <v>-1</v>
@@ -9794,10 +9794,10 @@
         <v>2</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>0.7426837482517482</v>
       </c>
       <c r="N129" t="n">
-        <v>0.7426837482517482</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>-1</v>
@@ -9867,10 +9867,10 @@
         <v>1.7</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>0.7283389090909091</v>
       </c>
       <c r="N130" t="n">
-        <v>0.7283389090909091</v>
+        <v>0</v>
       </c>
       <c r="O130" t="n">
         <v>-1</v>
@@ -9940,10 +9940,10 @@
         <v>1.8</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>0.9586683076923076</v>
       </c>
       <c r="N131" t="n">
-        <v>0.9586683076923076</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
         <v>-1</v>
@@ -10013,10 +10013,10 @@
         <v>2</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>0.9477743496503497</v>
       </c>
       <c r="N132" t="n">
-        <v>0.9477743496503497</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
         <v>-1</v>
@@ -10086,10 +10086,10 @@
         <v>1.8</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>0.6723128391608392</v>
       </c>
       <c r="N133" t="n">
-        <v>0.6723128391608392</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>-1</v>
@@ -10159,10 +10159,10 @@
         <v>3.4</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1.104281958041958</v>
       </c>
       <c r="N134" t="n">
-        <v>1.104281958041958</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
         <v>-1</v>
@@ -10232,10 +10232,10 @@
         <v>2</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>0.8769297902097902</v>
       </c>
       <c r="N135" t="n">
-        <v>0.8769297902097902</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
         <v>-1</v>
@@ -10305,10 +10305,10 @@
         <v>2.2</v>
       </c>
       <c r="M136" t="n">
-        <v>-1</v>
+        <v>0.6579679999999999</v>
       </c>
       <c r="N136" t="n">
-        <v>0.6579679999999999</v>
+        <v>-1</v>
       </c>
       <c r="O136" t="n">
         <v>-1</v>
@@ -10378,10 +10378,10 @@
         <v>2.3</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>0.7085809230769231</v>
       </c>
       <c r="N137" t="n">
-        <v>0.7085809230769231</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
         <v>-1</v>
@@ -10451,10 +10451,10 @@
         <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>0.425744</v>
       </c>
       <c r="N138" t="n">
-        <v>0.425744</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
         <v>-1</v>
@@ -10524,10 +10524,10 @@
         <v>1.8</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>0.9018302657342657</v>
       </c>
       <c r="N139" t="n">
-        <v>0.9018302657342657</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
         <v>-1</v>
@@ -10597,10 +10597,10 @@
         <v>1.8</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>0.9524431888111888</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9524431888111888</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
         <v>-1</v>
@@ -10670,10 +10670,10 @@
         <v>2.4</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>0.7968152167832168</v>
       </c>
       <c r="N141" t="n">
-        <v>0.7968152167832168</v>
+        <v>0</v>
       </c>
       <c r="O141" t="n">
         <v>-1</v>
@@ -10743,10 +10743,10 @@
         <v>1.6</v>
       </c>
       <c r="M142" t="n">
-        <v>-1</v>
+        <v>0.3268187412587413</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3268187412587413</v>
+        <v>-1</v>
       </c>
       <c r="O142" t="n">
         <v>-1</v>
@@ -10816,10 +10816,10 @@
         <v>3.6</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1.069637818181818</v>
       </c>
       <c r="N143" t="n">
-        <v>1.069637818181818</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
         <v>-1</v>
@@ -10889,10 +10889,10 @@
         <v>1.9</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>0.7881541818181818</v>
       </c>
       <c r="N144" t="n">
-        <v>0.7881541818181818</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>-1</v>
@@ -10962,10 +10962,10 @@
         <v>1.9</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>0.8870794405594407</v>
       </c>
       <c r="N145" t="n">
-        <v>0.8870794405594407</v>
+        <v>1</v>
       </c>
       <c r="O145" t="n">
         <v>-1</v>
@@ -11035,10 +11035,10 @@
         <v>3.4</v>
       </c>
       <c r="M146" t="n">
-        <v>-1</v>
+        <v>1.016859636363636</v>
       </c>
       <c r="N146" t="n">
-        <v>1.016859636363636</v>
+        <v>-1</v>
       </c>
       <c r="O146" t="n">
         <v>-1</v>
@@ -11108,10 +11108,10 @@
         <v>2.1</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1.245023776223776</v>
       </c>
       <c r="N147" t="n">
-        <v>1.245023776223776</v>
+        <v>0</v>
       </c>
       <c r="O147" t="n">
         <v>-1</v>
@@ -11181,10 +11181,10 @@
         <v>2.3</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>0.8842375384615385</v>
       </c>
       <c r="N148" t="n">
-        <v>0.8842375384615385</v>
+        <v>0</v>
       </c>
       <c r="O148" t="n">
         <v>-1</v>
@@ -11254,10 +11254,10 @@
         <v>2.5</v>
       </c>
       <c r="M149" t="n">
-        <v>-1</v>
+        <v>0.9359330909090909</v>
       </c>
       <c r="N149" t="n">
-        <v>0.9359330909090909</v>
+        <v>-1</v>
       </c>
       <c r="O149" t="n">
         <v>-1</v>
@@ -11327,10 +11327,10 @@
         <v>3.6</v>
       </c>
       <c r="M150" t="n">
-        <v>1</v>
+        <v>2.122765538461538</v>
       </c>
       <c r="N150" t="n">
-        <v>2.122765538461538</v>
+        <v>1</v>
       </c>
       <c r="O150" t="n">
         <v>-1</v>
@@ -11400,10 +11400,10 @@
         <v>2.1</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>1.280276895104895</v>
       </c>
       <c r="N151" t="n">
-        <v>1.280276895104895</v>
+        <v>0</v>
       </c>
       <c r="O151" t="n">
         <v>-1</v>
@@ -11473,10 +11473,10 @@
         <v>1.5</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>0.9337678321678322</v>
       </c>
       <c r="N152" t="n">
-        <v>0.9337678321678322</v>
+        <v>0</v>
       </c>
       <c r="O152" t="n">
         <v>-1</v>
@@ -11546,10 +11546,10 @@
         <v>1.5</v>
       </c>
       <c r="M153" t="n">
-        <v>-1</v>
+        <v>0.7070923076923077</v>
       </c>
       <c r="N153" t="n">
-        <v>0.7070923076923077</v>
+        <v>-1</v>
       </c>
       <c r="O153" t="n">
         <v>-1</v>
@@ -11619,10 +11619,10 @@
         <v>2</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>0.5066705454545455</v>
       </c>
       <c r="N154" t="n">
-        <v>0.5066705454545455</v>
+        <v>0</v>
       </c>
       <c r="O154" t="n">
         <v>-1</v>
@@ -11692,10 +11692,10 @@
         <v>1.8</v>
       </c>
       <c r="M155" t="n">
-        <v>-1</v>
+        <v>1.287787636363636</v>
       </c>
       <c r="N155" t="n">
-        <v>1.287787636363636</v>
+        <v>-1</v>
       </c>
       <c r="O155" t="n">
         <v>-1</v>
@@ -11765,10 +11765,10 @@
         <v>2.6</v>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>0.9816741818181818</v>
       </c>
       <c r="N156" t="n">
-        <v>0.9816741818181818</v>
+        <v>1</v>
       </c>
       <c r="O156" t="n">
         <v>-1</v>
@@ -11838,10 +11838,10 @@
         <v>2.1</v>
       </c>
       <c r="M157" t="n">
-        <v>1</v>
+        <v>1.023084755244755</v>
       </c>
       <c r="N157" t="n">
-        <v>1.023084755244755</v>
+        <v>1</v>
       </c>
       <c r="O157" t="n">
         <v>-1</v>
@@ -11911,10 +11911,10 @@
         <v>1.8</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>0.2955578181818182</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2955578181818182</v>
+        <v>0</v>
       </c>
       <c r="O158" t="n">
         <v>-1</v>
@@ -11984,10 +11984,10 @@
         <v>3.2</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>1.110777734265734</v>
       </c>
       <c r="N159" t="n">
-        <v>1.110777734265734</v>
+        <v>0</v>
       </c>
       <c r="O159" t="n">
         <v>-1</v>
@@ -12057,10 +12057,10 @@
         <v>1.9</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>0.9662467132867134</v>
       </c>
       <c r="N160" t="n">
-        <v>0.9662467132867134</v>
+        <v>0</v>
       </c>
       <c r="O160" t="n">
         <v>-1</v>
@@ -12130,10 +12130,10 @@
         <v>2.5</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>0.8282114685314685</v>
       </c>
       <c r="N161" t="n">
-        <v>0.8282114685314685</v>
+        <v>0</v>
       </c>
       <c r="O161" t="n">
         <v>-1</v>
@@ -12203,10 +12203,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>1.266676363636364</v>
       </c>
       <c r="N162" t="n">
-        <v>1.266676363636364</v>
+        <v>0</v>
       </c>
       <c r="O162" t="n">
         <v>-1</v>
@@ -12276,10 +12276,10 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>-1</v>
+        <v>1.407959496503497</v>
       </c>
       <c r="N163" t="n">
-        <v>1.407959496503497</v>
+        <v>-1</v>
       </c>
       <c r="O163" t="n">
         <v>-1</v>
@@ -12349,10 +12349,10 @@
         <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>-1</v>
+        <v>1.047985230769231</v>
       </c>
       <c r="N164" t="n">
-        <v>1.047985230769231</v>
+        <v>-1</v>
       </c>
       <c r="O164" t="n">
         <v>-1</v>
@@ -12422,10 +12422,10 @@
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>-1</v>
+        <v>1.61135848951049</v>
       </c>
       <c r="N165" t="n">
-        <v>1.61135848951049</v>
+        <v>-1</v>
       </c>
       <c r="O165" t="n">
         <v>-1</v>
@@ -12495,10 +12495,10 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>-1</v>
+        <v>0.8715166433566434</v>
       </c>
       <c r="N166" t="n">
-        <v>0.8715166433566434</v>
+        <v>-1</v>
       </c>
       <c r="O166" t="n">
         <v>-1</v>
@@ -12568,10 +12568,10 @@
         <v>0</v>
       </c>
       <c r="M167" t="n">
-        <v>-1</v>
+        <v>1.551678545454546</v>
       </c>
       <c r="N167" t="n">
-        <v>1.551678545454546</v>
+        <v>-1</v>
       </c>
       <c r="O167" t="n">
         <v>-1</v>
@@ -12641,10 +12641,10 @@
         <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>-1</v>
+        <v>0.9743664335664336</v>
       </c>
       <c r="N168" t="n">
-        <v>0.9743664335664336</v>
+        <v>-1</v>
       </c>
       <c r="O168" t="n">
         <v>-1</v>
@@ -12714,10 +12714,10 @@
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>-1</v>
+        <v>1.432318657342657</v>
       </c>
       <c r="N169" t="n">
-        <v>1.432318657342657</v>
+        <v>-1</v>
       </c>
       <c r="O169" t="n">
         <v>-1</v>
@@ -12787,10 +12787,10 @@
         <v>1.7</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
+        <v>0.5570128111888113</v>
       </c>
       <c r="N170" t="n">
-        <v>0.5570128111888113</v>
+        <v>0</v>
       </c>
       <c r="O170" t="n">
         <v>-1</v>
@@ -12860,10 +12860,10 @@
         <v>1.8</v>
       </c>
       <c r="M171" t="n">
-        <v>1</v>
+        <v>1.376901566433566</v>
       </c>
       <c r="N171" t="n">
-        <v>1.376901566433566</v>
+        <v>1</v>
       </c>
       <c r="O171" t="n">
         <v>-1</v>
@@ -12933,10 +12933,10 @@
         <v>2.4</v>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>1.702976</v>
       </c>
       <c r="N172" t="n">
-        <v>1.702976</v>
+        <v>1</v>
       </c>
       <c r="O172" t="n">
         <v>-1</v>
@@ -13006,10 +13006,10 @@
         <v>1.8</v>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>1.38116441958042</v>
       </c>
       <c r="N173" t="n">
-        <v>1.38116441958042</v>
+        <v>1</v>
       </c>
       <c r="O173" t="n">
         <v>-1</v>
@@ -13079,10 +13079,10 @@
         <v>3.2</v>
       </c>
       <c r="M174" t="n">
-        <v>1</v>
+        <v>0.445096</v>
       </c>
       <c r="N174" t="n">
-        <v>0.445096</v>
+        <v>1</v>
       </c>
       <c r="O174" t="n">
         <v>-1</v>
@@ -13152,10 +13152,10 @@
         <v>2</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>1.439897062937063</v>
       </c>
       <c r="N175" t="n">
-        <v>1.439897062937063</v>
+        <v>0</v>
       </c>
       <c r="O175" t="n">
         <v>-1</v>
@@ -13225,10 +13225,10 @@
         <v>2.6</v>
       </c>
       <c r="M176" t="n">
-        <v>1</v>
+        <v>1.125934545454546</v>
       </c>
       <c r="N176" t="n">
-        <v>1.125934545454546</v>
+        <v>1</v>
       </c>
       <c r="O176" t="n">
         <v>-1</v>
@@ -13298,10 +13298,10 @@
         <v>2.3</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>1.417161846153846</v>
       </c>
       <c r="N177" t="n">
-        <v>1.417161846153846</v>
+        <v>0</v>
       </c>
       <c r="O177" t="n">
         <v>-1</v>
@@ -13371,10 +13371,10 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
-        <v>-1</v>
+        <v>1.875655384615385</v>
       </c>
       <c r="N178" t="n">
-        <v>1.875655384615385</v>
+        <v>-1</v>
       </c>
       <c r="O178" t="n">
         <v>-1</v>
@@ -13444,10 +13444,10 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>-1</v>
+        <v>1.46154965034965</v>
       </c>
       <c r="N179" t="n">
-        <v>1.46154965034965</v>
+        <v>-1</v>
       </c>
       <c r="O179" t="n">
         <v>-1</v>
@@ -13517,10 +13517,10 @@
         <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>-1</v>
+        <v>1.047985230769231</v>
       </c>
       <c r="N180" t="n">
-        <v>1.047985230769231</v>
+        <v>-1</v>
       </c>
       <c r="O180" t="n">
         <v>-1</v>
@@ -13590,10 +13590,10 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>-1</v>
+        <v>1.641198461538462</v>
       </c>
       <c r="N181" t="n">
-        <v>1.641198461538462</v>
+        <v>-1</v>
       </c>
       <c r="O181" t="n">
         <v>-1</v>
@@ -13663,10 +13663,10 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>-1</v>
+        <v>0.08525706293706294</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08525706293706294</v>
+        <v>-1</v>
       </c>
       <c r="O182" t="n">
         <v>-1</v>
@@ -13736,10 +13736,10 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>-1</v>
+        <v>1.995015272727273</v>
       </c>
       <c r="N183" t="n">
-        <v>1.995015272727273</v>
+        <v>-1</v>
       </c>
       <c r="O183" t="n">
         <v>-1</v>
@@ -13809,10 +13809,10 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>-1</v>
+        <v>1.023084755244755</v>
       </c>
       <c r="N184" t="n">
-        <v>1.023084755244755</v>
+        <v>-1</v>
       </c>
       <c r="O184" t="n">
         <v>-1</v>
@@ -13882,10 +13882,10 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>-1</v>
+        <v>1.569812587412587</v>
       </c>
       <c r="N185" t="n">
-        <v>1.569812587412587</v>
+        <v>-1</v>
       </c>
       <c r="O185" t="n">
         <v>-1</v>
@@ -13955,10 +13955,10 @@
         <v>1.5</v>
       </c>
       <c r="M186" t="n">
-        <v>-1</v>
+        <v>0.8857261538461538</v>
       </c>
       <c r="N186" t="n">
-        <v>0.8857261538461538</v>
+        <v>-1</v>
       </c>
       <c r="O186" t="n">
         <v>-1</v>
@@ -14028,10 +14028,10 @@
         <v>3.3</v>
       </c>
       <c r="M187" t="n">
-        <v>-1</v>
+        <v>2.013690629370629</v>
       </c>
       <c r="N187" t="n">
-        <v>2.013690629370629</v>
+        <v>-1</v>
       </c>
       <c r="O187" t="n">
         <v>-1</v>
@@ -14101,10 +14101,10 @@
         <v>2.8</v>
       </c>
       <c r="M188" t="n">
-        <v>1</v>
+        <v>2.084061538461539</v>
       </c>
       <c r="N188" t="n">
-        <v>2.084061538461539</v>
+        <v>1</v>
       </c>
       <c r="O188" t="n">
         <v>-1</v>
@@ -14174,10 +14174,10 @@
         <v>1.3</v>
       </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>1.61135848951049</v>
       </c>
       <c r="N189" t="n">
-        <v>1.61135848951049</v>
+        <v>1</v>
       </c>
       <c r="O189" t="n">
         <v>-1</v>
@@ -14247,10 +14247,10 @@
         <v>1.4</v>
       </c>
       <c r="M190" t="n">
-        <v>-1</v>
+        <v>0.6924768111888113</v>
       </c>
       <c r="N190" t="n">
-        <v>0.6924768111888113</v>
+        <v>-1</v>
       </c>
       <c r="O190" t="n">
         <v>-1</v>
@@ -14320,10 +14320,10 @@
         <v>3.8</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>1.964972307692308</v>
       </c>
       <c r="N191" t="n">
-        <v>1.964972307692308</v>
+        <v>0</v>
       </c>
       <c r="O191" t="n">
         <v>-1</v>
@@ -14393,10 +14393,10 @@
         <v>2</v>
       </c>
       <c r="M192" t="n">
-        <v>1</v>
+        <v>1.640454153846154</v>
       </c>
       <c r="N192" t="n">
-        <v>1.640454153846154</v>
+        <v>1</v>
       </c>
       <c r="O192" t="n">
         <v>-1</v>
@@ -14466,10 +14466,10 @@
         <v>2.2</v>
       </c>
       <c r="M193" t="n">
-        <v>1</v>
+        <v>1.490780643356643</v>
       </c>
       <c r="N193" t="n">
-        <v>1.490780643356643</v>
+        <v>1</v>
       </c>
       <c r="O193" t="n">
         <v>-1</v>
@@ -14539,10 +14539,10 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>-1</v>
+        <v>2.046169510489511</v>
       </c>
       <c r="N194" t="n">
-        <v>2.046169510489511</v>
+        <v>-1</v>
       </c>
       <c r="O194" t="n">
         <v>-1</v>
@@ -14612,10 +14612,10 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>-1</v>
+        <v>1.53819980979021</v>
       </c>
       <c r="N195" t="n">
-        <v>1.53819980979021</v>
+        <v>-1</v>
       </c>
       <c r="O195" t="n">
         <v>-1</v>
@@ -14685,10 +14685,10 @@
         <v>0</v>
       </c>
       <c r="M196" t="n">
-        <v>-1</v>
+        <v>1.095620923076923</v>
       </c>
       <c r="N196" t="n">
-        <v>1.095620923076923</v>
+        <v>-1</v>
       </c>
       <c r="O196" t="n">
         <v>-1</v>
@@ -14758,10 +14758,10 @@
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>-1</v>
+        <v>1.750611692307692</v>
       </c>
       <c r="N197" t="n">
-        <v>1.750611692307692</v>
+        <v>-1</v>
       </c>
       <c r="O197" t="n">
         <v>-1</v>
@@ -14831,10 +14831,10 @@
         <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>-1</v>
+        <v>0.4262853146853147</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4262853146853147</v>
+        <v>-1</v>
       </c>
       <c r="O198" t="n">
         <v>-1</v>
@@ -14904,10 +14904,10 @@
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>-1</v>
+        <v>2.071746629370629</v>
       </c>
       <c r="N199" t="n">
-        <v>2.071746629370629</v>
+        <v>-1</v>
       </c>
       <c r="O199" t="n">
         <v>-1</v>
@@ -14977,10 +14977,10 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>-1</v>
+        <v>1.023084755244755</v>
       </c>
       <c r="N200" t="n">
-        <v>1.023084755244755</v>
+        <v>-1</v>
       </c>
       <c r="O200" t="n">
         <v>-1</v>
@@ -15050,10 +15050,10 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>-1</v>
+        <v>1.623944055944056</v>
       </c>
       <c r="N201" t="n">
-        <v>1.623944055944056</v>
+        <v>-1</v>
       </c>
       <c r="O201" t="n">
         <v>-1</v>
@@ -15123,10 +15123,10 @@
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>-1</v>
+        <v>1.263699132867133</v>
       </c>
       <c r="N202" t="n">
-        <v>1.263699132867133</v>
+        <v>-1</v>
       </c>
       <c r="O202" t="n">
         <v>-1</v>
@@ -15196,10 +15196,10 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>-1</v>
+        <v>2.286513230769231</v>
       </c>
       <c r="N203" t="n">
-        <v>2.286513230769231</v>
+        <v>-1</v>
       </c>
       <c r="O203" t="n">
         <v>-1</v>
@@ -15269,10 +15269,10 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>-1</v>
+        <v>2.256605594405594</v>
       </c>
       <c r="N204" t="n">
-        <v>2.256605594405594</v>
+        <v>-1</v>
       </c>
       <c r="O204" t="n">
         <v>-1</v>
@@ -15342,10 +15342,10 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>-1</v>
+        <v>1.750611692307692</v>
       </c>
       <c r="N205" t="n">
-        <v>1.750611692307692</v>
+        <v>-1</v>
       </c>
       <c r="O205" t="n">
         <v>-1</v>
@@ -15415,10 +15415,10 @@
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>-1</v>
+        <v>0.7085809230769231</v>
       </c>
       <c r="N206" t="n">
-        <v>0.7085809230769231</v>
+        <v>-1</v>
       </c>
       <c r="O206" t="n">
         <v>-1</v>
@@ -15488,10 +15488,10 @@
         <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>-1</v>
+        <v>1.964972307692308</v>
       </c>
       <c r="N207" t="n">
-        <v>1.964972307692308</v>
+        <v>-1</v>
       </c>
       <c r="O207" t="n">
         <v>-1</v>
@@ -15561,10 +15561,10 @@
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>-1</v>
+        <v>1.786338461538462</v>
       </c>
       <c r="N208" t="n">
-        <v>1.786338461538462</v>
+        <v>-1</v>
       </c>
       <c r="O208" t="n">
         <v>-1</v>
@@ -15634,10 +15634,10 @@
         <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>-1</v>
+        <v>1.554723440559441</v>
       </c>
       <c r="N209" t="n">
-        <v>1.554723440559441</v>
+        <v>-1</v>
       </c>
       <c r="O209" t="n">
         <v>-1</v>
@@ -15707,10 +15707,10 @@
         <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O210" t="n">
         <v>-1</v>
@@ -15780,10 +15780,10 @@
         <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>-1</v>
+        <v>0.9207762797202796</v>
       </c>
       <c r="N211" t="n">
-        <v>0.9207762797202796</v>
+        <v>-1</v>
       </c>
       <c r="O211" t="n">
         <v>-1</v>
@@ -15853,10 +15853,10 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>-1</v>
+        <v>1.095620923076923</v>
       </c>
       <c r="N212" t="n">
-        <v>1.095620923076923</v>
+        <v>-1</v>
       </c>
       <c r="O212" t="n">
         <v>-1</v>
@@ -15926,10 +15926,10 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>-1</v>
+        <v>1.895548699300699</v>
       </c>
       <c r="N213" t="n">
-        <v>1.895548699300699</v>
+        <v>-1</v>
       </c>
       <c r="O213" t="n">
         <v>-1</v>
@@ -15999,10 +15999,10 @@
         <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>-1</v>
+        <v>0.7307748251748252</v>
       </c>
       <c r="N214" t="n">
-        <v>0.7307748251748252</v>
+        <v>-1</v>
       </c>
       <c r="O214" t="n">
         <v>-1</v>
@@ -16072,10 +16072,10 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>-1</v>
+        <v>1.656422937062937</v>
       </c>
       <c r="N215" t="n">
-        <v>1.656422937062937</v>
+        <v>-1</v>
       </c>
       <c r="O215" t="n">
         <v>-1</v>
@@ -16145,10 +16145,10 @@
         <v>0</v>
       </c>
       <c r="M216" t="n">
-        <v>-1</v>
+        <v>1.023084755244755</v>
       </c>
       <c r="N216" t="n">
-        <v>1.023084755244755</v>
+        <v>-1</v>
       </c>
       <c r="O216" t="n">
         <v>-1</v>
@@ -16218,10 +16218,10 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>-1</v>
+        <v>1.789721678321678</v>
       </c>
       <c r="N217" t="n">
-        <v>1.789721678321678</v>
+        <v>-1</v>
       </c>
       <c r="O217" t="n">
         <v>-1</v>
@@ -16291,10 +16291,10 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>-1</v>
+        <v>1.364113006993007</v>
       </c>
       <c r="N218" t="n">
-        <v>1.364113006993007</v>
+        <v>-1</v>
       </c>
       <c r="O218" t="n">
         <v>-1</v>
@@ -16364,10 +16364,10 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>-1</v>
+        <v>2.286513230769231</v>
       </c>
       <c r="N219" t="n">
-        <v>2.286513230769231</v>
+        <v>-1</v>
       </c>
       <c r="O219" t="n">
         <v>-1</v>
@@ -16437,10 +16437,10 @@
         <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>-1</v>
+        <v>2.435916083916084</v>
       </c>
       <c r="N220" t="n">
-        <v>2.435916083916084</v>
+        <v>-1</v>
       </c>
       <c r="O220" t="n">
         <v>-1</v>
@@ -16510,10 +16510,10 @@
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>-1</v>
+        <v>1.895548699300699</v>
       </c>
       <c r="N221" t="n">
-        <v>1.895548699300699</v>
+        <v>-1</v>
       </c>
       <c r="O221" t="n">
         <v>-1</v>
@@ -16583,10 +16583,10 @@
         <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>-1</v>
+        <v>0.7843649790209791</v>
       </c>
       <c r="N222" t="n">
-        <v>0.7843649790209791</v>
+        <v>-1</v>
       </c>
       <c r="O222" t="n">
         <v>-1</v>
@@ -16656,10 +16656,10 @@
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>-1</v>
+        <v>1.964972307692308</v>
       </c>
       <c r="N223" t="n">
-        <v>1.964972307692308</v>
+        <v>-1</v>
       </c>
       <c r="O223" t="n">
         <v>-1</v>
@@ -16729,10 +16729,10 @@
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>-1</v>
+        <v>1.938177230769231</v>
       </c>
       <c r="N224" t="n">
-        <v>1.938177230769231</v>
+        <v>-1</v>
       </c>
       <c r="O224" t="n">
         <v>-1</v>
@@ -16802,10 +16802,10 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>-1</v>
+        <v>1.727876475524476</v>
       </c>
       <c r="N225" t="n">
-        <v>1.727876475524476</v>
+        <v>-1</v>
       </c>
       <c r="O225" t="n">
         <v>-1</v>
@@ -16875,10 +16875,10 @@
         <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O226" t="n">
         <v>-1</v>
@@ -16948,10 +16948,10 @@
         <v>0</v>
       </c>
       <c r="M227" t="n">
-        <v>-1</v>
+        <v>0.2923099300699301</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2923099300699301</v>
+        <v>-1</v>
       </c>
       <c r="O227" t="n">
         <v>-1</v>
@@ -17021,10 +17021,10 @@
         <v>0</v>
       </c>
       <c r="M228" t="n">
-        <v>-1</v>
+        <v>1.095620923076923</v>
       </c>
       <c r="N228" t="n">
-        <v>1.095620923076923</v>
+        <v>-1</v>
       </c>
       <c r="O228" t="n">
         <v>-1</v>
@@ -17094,10 +17094,10 @@
         <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>-1</v>
+        <v>1.091290405594406</v>
       </c>
       <c r="N229" t="n">
-        <v>1.091290405594406</v>
+        <v>-1</v>
       </c>
       <c r="O229" t="n">
         <v>-1</v>
@@ -17167,10 +17167,10 @@
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>-1</v>
+        <v>1.014965034965035</v>
       </c>
       <c r="N230" t="n">
-        <v>1.014965034965035</v>
+        <v>-1</v>
       </c>
       <c r="O230" t="n">
         <v>-1</v>
@@ -17240,10 +17240,10 @@
         <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>-1</v>
+        <v>2.232923076923077</v>
       </c>
       <c r="N231" t="n">
-        <v>2.232923076923077</v>
+        <v>-1</v>
       </c>
       <c r="O231" t="n">
         <v>-1</v>
@@ -17313,10 +17313,10 @@
         <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>-1</v>
+        <v>0.8355192167832168</v>
       </c>
       <c r="N232" t="n">
-        <v>0.8355192167832168</v>
+        <v>-1</v>
       </c>
       <c r="O232" t="n">
         <v>-1</v>
@@ -17386,10 +17386,10 @@
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>-1</v>
+        <v>1.789721678321678</v>
       </c>
       <c r="N233" t="n">
-        <v>1.789721678321678</v>
+        <v>-1</v>
       </c>
       <c r="O233" t="n">
         <v>-1</v>
@@ -17459,10 +17459,10 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>-1</v>
+        <v>1.527048727272727</v>
       </c>
       <c r="N234" t="n">
-        <v>1.527048727272727</v>
+        <v>-1</v>
       </c>
       <c r="O234" t="n">
         <v>-1</v>
@@ -17532,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>-1</v>
+        <v>2.955578181818182</v>
       </c>
       <c r="N235" t="n">
-        <v>2.955578181818182</v>
+        <v>-1</v>
       </c>
       <c r="O235" t="n">
         <v>-1</v>
@@ -17605,10 +17605,10 @@
         <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>-1</v>
+        <v>2.315744223776224</v>
       </c>
       <c r="N236" t="n">
-        <v>2.315744223776224</v>
+        <v>-1</v>
       </c>
       <c r="O236" t="n">
         <v>-1</v>
@@ -17678,10 +17678,10 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>-1</v>
+        <v>1.895548699300699</v>
       </c>
       <c r="N237" t="n">
-        <v>1.895548699300699</v>
+        <v>-1</v>
       </c>
       <c r="O237" t="n">
         <v>-1</v>
@@ -17751,10 +17751,10 @@
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>-1</v>
+        <v>0.8639382377622378</v>
       </c>
       <c r="N238" t="n">
-        <v>0.8639382377622378</v>
+        <v>-1</v>
       </c>
       <c r="O238" t="n">
         <v>-1</v>
@@ -17824,10 +17824,10 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
-        <v>-1</v>
+        <v>1.045819972027972</v>
       </c>
       <c r="N239" t="n">
-        <v>1.045819972027972</v>
+        <v>-1</v>
       </c>
       <c r="O239" t="n">
         <v>-1</v>
@@ -17897,10 +17897,10 @@
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>-1</v>
+        <v>0.7307748251748252</v>
       </c>
       <c r="N240" t="n">
-        <v>0.7307748251748252</v>
+        <v>-1</v>
       </c>
       <c r="O240" t="n">
         <v>-1</v>
@@ -17970,10 +17970,10 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>-1</v>
+        <v>1.78958634965035</v>
       </c>
       <c r="N241" t="n">
-        <v>1.78958634965035</v>
+        <v>-1</v>
       </c>
       <c r="O241" t="n">
         <v>-1</v>

--- a/dataset/2nd_data/myeong/myeong_growth_detail_data.xlsx
+++ b/dataset/2nd_data/myeong/myeong_growth_detail_data.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>주차</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -429,65 +429,63 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>leaf_area</t>
+          <t>엽면적지수</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>suitable_growth_length</t>
+          <t>주간생육길이_생육상태</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>suitable_thickness</t>
+          <t>줄기굵기_생육상태</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_length</t>
+          <t>잎길이_생육상태</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_width</t>
+          <t>입폭_생육상태</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>suitable_number_of_leaf</t>
+          <t>입수_생육상태</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_area</t>
+          <t>엽면적지수_생육상태</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_room</t>
+          <t>개화화방위치_생육상태</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_distance</t>
+          <t>꽃과줄기거리_생육상태</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>growth_type_score</t>
+          <t>생육상태점수</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>growth_type</t>
+          <t>생장구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20180312</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -557,10 +555,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20180312</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -630,10 +626,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20180312</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -696,17 +690,15 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="W4" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20180312</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -776,10 +768,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20180312</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -849,10 +839,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20180312</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -922,10 +910,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20180312</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -995,10 +981,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20180312</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -1061,17 +1045,15 @@
         <v>-1</v>
       </c>
       <c r="V9" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="W9" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20180312</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
@@ -1141,10 +1123,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20180312</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
@@ -1214,10 +1194,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20180312</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -1287,10 +1265,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20180312</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
@@ -1360,10 +1336,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20180312</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
@@ -1433,10 +1407,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20180312</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
@@ -1506,10 +1478,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20180312</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
@@ -1579,10 +1549,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6주(03/12)</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20180312</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
@@ -1652,10 +1620,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20180319</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1725,10 +1691,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20180319</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -1791,17 +1755,15 @@
         <v>-1</v>
       </c>
       <c r="V19" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="W19" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20180319</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -1871,10 +1833,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20180319</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -1944,10 +1904,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20180319</v>
       </c>
       <c r="B22" t="n">
         <v>5</v>
@@ -2017,10 +1975,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20180319</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -2090,10 +2046,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20180319</v>
       </c>
       <c r="B24" t="n">
         <v>7</v>
@@ -2163,10 +2117,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20180319</v>
       </c>
       <c r="B25" t="n">
         <v>8</v>
@@ -2236,10 +2188,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20180319</v>
       </c>
       <c r="B26" t="n">
         <v>9</v>
@@ -2309,10 +2259,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20180319</v>
       </c>
       <c r="B27" t="n">
         <v>10</v>
@@ -2382,10 +2330,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20180319</v>
       </c>
       <c r="B28" t="n">
         <v>11</v>
@@ -2455,10 +2401,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A29" t="n">
+        <v>20180319</v>
       </c>
       <c r="B29" t="n">
         <v>12</v>
@@ -2528,10 +2472,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A30" t="n">
+        <v>20180319</v>
       </c>
       <c r="B30" t="n">
         <v>13</v>
@@ -2601,10 +2543,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A31" t="n">
+        <v>20180319</v>
       </c>
       <c r="B31" t="n">
         <v>14</v>
@@ -2667,17 +2607,15 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W31" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A32" t="n">
+        <v>20180319</v>
       </c>
       <c r="B32" t="n">
         <v>15</v>
@@ -2747,10 +2685,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>7주(03/19)</t>
-        </is>
+      <c r="A33" t="n">
+        <v>20180319</v>
       </c>
       <c r="B33" t="n">
         <v>16</v>
@@ -2813,17 +2749,15 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W33" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A34" t="n">
+        <v>20180326</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -2886,17 +2820,15 @@
         <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W34" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A35" t="n">
+        <v>20180326</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -2959,17 +2891,15 @@
         <v>-1</v>
       </c>
       <c r="V35" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W35" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A36" t="n">
+        <v>20180326</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -3039,10 +2969,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A37" t="n">
+        <v>20180326</v>
       </c>
       <c r="B37" t="n">
         <v>4</v>
@@ -3112,10 +3040,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A38" t="n">
+        <v>20180326</v>
       </c>
       <c r="B38" t="n">
         <v>5</v>
@@ -3185,10 +3111,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A39" t="n">
+        <v>20180326</v>
       </c>
       <c r="B39" t="n">
         <v>6</v>
@@ -3258,10 +3182,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A40" t="n">
+        <v>20180326</v>
       </c>
       <c r="B40" t="n">
         <v>7</v>
@@ -3331,10 +3253,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A41" t="n">
+        <v>20180326</v>
       </c>
       <c r="B41" t="n">
         <v>8</v>
@@ -3404,10 +3324,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A42" t="n">
+        <v>20180326</v>
       </c>
       <c r="B42" t="n">
         <v>9</v>
@@ -3477,10 +3395,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A43" t="n">
+        <v>20180326</v>
       </c>
       <c r="B43" t="n">
         <v>10</v>
@@ -3550,10 +3466,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A44" t="n">
+        <v>20180326</v>
       </c>
       <c r="B44" t="n">
         <v>11</v>
@@ -3623,10 +3537,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A45" t="n">
+        <v>20180326</v>
       </c>
       <c r="B45" t="n">
         <v>12</v>
@@ -3696,10 +3608,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20180326</v>
       </c>
       <c r="B46" t="n">
         <v>13</v>
@@ -3769,10 +3679,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20180326</v>
       </c>
       <c r="B47" t="n">
         <v>14</v>
@@ -3842,10 +3750,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20180326</v>
       </c>
       <c r="B48" t="n">
         <v>15</v>
@@ -3915,10 +3821,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>8주(03/26)</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20180326</v>
       </c>
       <c r="B49" t="n">
         <v>16</v>
@@ -3988,10 +3892,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20180402</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -4061,10 +3963,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20180402</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
@@ -4127,17 +4027,15 @@
         <v>-1</v>
       </c>
       <c r="V51" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W51" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20180402</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -4200,17 +4098,15 @@
         <v>-1</v>
       </c>
       <c r="V52" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W52" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20180402</v>
       </c>
       <c r="B53" t="n">
         <v>4</v>
@@ -4280,10 +4176,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20180402</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -4353,10 +4247,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20180402</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
@@ -4426,10 +4318,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20180402</v>
       </c>
       <c r="B56" t="n">
         <v>7</v>
@@ -4499,10 +4389,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20180402</v>
       </c>
       <c r="B57" t="n">
         <v>8</v>
@@ -4572,10 +4460,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20180402</v>
       </c>
       <c r="B58" t="n">
         <v>9</v>
@@ -4645,10 +4531,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20180402</v>
       </c>
       <c r="B59" t="n">
         <v>10</v>
@@ -4711,17 +4595,15 @@
         <v>-1</v>
       </c>
       <c r="V59" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W59" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20180402</v>
       </c>
       <c r="B60" t="n">
         <v>11</v>
@@ -4791,10 +4673,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20180402</v>
       </c>
       <c r="B61" t="n">
         <v>12</v>
@@ -4857,17 +4737,15 @@
         <v>-1</v>
       </c>
       <c r="V61" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W61" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20180402</v>
       </c>
       <c r="B62" t="n">
         <v>13</v>
@@ -4937,10 +4815,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20180402</v>
       </c>
       <c r="B63" t="n">
         <v>14</v>
@@ -5010,10 +4886,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20180402</v>
       </c>
       <c r="B64" t="n">
         <v>15</v>
@@ -5083,10 +4957,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>9주(04/02)</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20180402</v>
       </c>
       <c r="B65" t="n">
         <v>16</v>
@@ -5149,17 +5021,15 @@
         <v>-1</v>
       </c>
       <c r="V65" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W65" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20180409</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -5222,17 +5092,15 @@
         <v>-1</v>
       </c>
       <c r="V66" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20180409</v>
       </c>
       <c r="B67" t="n">
         <v>2</v>
@@ -5295,17 +5163,15 @@
         <v>-1</v>
       </c>
       <c r="V67" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20180409</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
@@ -5368,17 +5234,15 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W68" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20180409</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
@@ -5448,10 +5312,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20180409</v>
       </c>
       <c r="B70" t="n">
         <v>5</v>
@@ -5514,17 +5376,15 @@
         <v>-1</v>
       </c>
       <c r="V70" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W70" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20180409</v>
       </c>
       <c r="B71" t="n">
         <v>6</v>
@@ -5587,17 +5447,15 @@
         <v>-1</v>
       </c>
       <c r="V71" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W71" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20180409</v>
       </c>
       <c r="B72" t="n">
         <v>7</v>
@@ -5660,17 +5518,15 @@
         <v>-1</v>
       </c>
       <c r="V72" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W72" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20180409</v>
       </c>
       <c r="B73" t="n">
         <v>8</v>
@@ -5733,17 +5589,15 @@
         <v>-1</v>
       </c>
       <c r="V73" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W73" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20180409</v>
       </c>
       <c r="B74" t="n">
         <v>9</v>
@@ -5813,10 +5667,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20180409</v>
       </c>
       <c r="B75" t="n">
         <v>10</v>
@@ -5886,10 +5738,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20180409</v>
       </c>
       <c r="B76" t="n">
         <v>11</v>
@@ -5952,17 +5802,15 @@
         <v>-1</v>
       </c>
       <c r="V76" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W76" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20180409</v>
       </c>
       <c r="B77" t="n">
         <v>12</v>
@@ -6032,10 +5880,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20180409</v>
       </c>
       <c r="B78" t="n">
         <v>13</v>
@@ -6105,10 +5951,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20180409</v>
       </c>
       <c r="B79" t="n">
         <v>14</v>
@@ -6171,17 +6015,15 @@
         <v>-1</v>
       </c>
       <c r="V79" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W79" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20180409</v>
       </c>
       <c r="B80" t="n">
         <v>15</v>
@@ -6244,17 +6086,15 @@
         <v>-1</v>
       </c>
       <c r="V80" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W80" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>10주(04/09)</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20180409</v>
       </c>
       <c r="B81" t="n">
         <v>16</v>
@@ -6324,10 +6164,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20180416</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -6390,17 +6228,15 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20180416</v>
       </c>
       <c r="B83" t="n">
         <v>2</v>
@@ -6463,17 +6299,15 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W83" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20180416</v>
       </c>
       <c r="B84" t="n">
         <v>3</v>
@@ -6536,17 +6370,15 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20180416</v>
       </c>
       <c r="B85" t="n">
         <v>4</v>
@@ -6609,17 +6441,15 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W85" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20180416</v>
       </c>
       <c r="B86" t="n">
         <v>5</v>
@@ -6682,17 +6512,15 @@
         <v>-1</v>
       </c>
       <c r="V86" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W86" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20180416</v>
       </c>
       <c r="B87" t="n">
         <v>6</v>
@@ -6755,17 +6583,15 @@
         <v>-1</v>
       </c>
       <c r="V87" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W87" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20180416</v>
       </c>
       <c r="B88" t="n">
         <v>7</v>
@@ -6828,17 +6654,15 @@
         <v>-1</v>
       </c>
       <c r="V88" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W88" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20180416</v>
       </c>
       <c r="B89" t="n">
         <v>8</v>
@@ -6901,17 +6725,15 @@
         <v>-1</v>
       </c>
       <c r="V89" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W89" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20180416</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
@@ -6974,17 +6796,15 @@
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W90" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20180416</v>
       </c>
       <c r="B91" t="n">
         <v>10</v>
@@ -7047,17 +6867,15 @@
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W91" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20180416</v>
       </c>
       <c r="B92" t="n">
         <v>11</v>
@@ -7120,17 +6938,15 @@
         <v>-1</v>
       </c>
       <c r="V92" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W92" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20180416</v>
       </c>
       <c r="B93" t="n">
         <v>12</v>
@@ -7193,17 +7009,15 @@
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20180416</v>
       </c>
       <c r="B94" t="n">
         <v>13</v>
@@ -7273,10 +7087,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20180416</v>
       </c>
       <c r="B95" t="n">
         <v>14</v>
@@ -7339,17 +7151,15 @@
         <v>-1</v>
       </c>
       <c r="V95" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W95" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20180416</v>
       </c>
       <c r="B96" t="n">
         <v>15</v>
@@ -7412,17 +7222,15 @@
         <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W96" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>11주(04/16)</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20180416</v>
       </c>
       <c r="B97" t="n">
         <v>16</v>
@@ -7485,17 +7293,15 @@
         <v>-1</v>
       </c>
       <c r="V97" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W97" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20180423</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -7558,17 +7364,15 @@
         <v>-1</v>
       </c>
       <c r="V98" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W98" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20180423</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -7631,17 +7435,15 @@
         <v>-1</v>
       </c>
       <c r="V99" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W99" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20180423</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
@@ -7704,17 +7506,15 @@
         <v>-1</v>
       </c>
       <c r="V100" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20180423</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -7777,17 +7577,15 @@
         <v>-1</v>
       </c>
       <c r="V101" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W101" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20180423</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
@@ -7850,17 +7648,15 @@
         <v>-1</v>
       </c>
       <c r="V102" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W102" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20180423</v>
       </c>
       <c r="B103" t="n">
         <v>6</v>
@@ -7923,17 +7719,15 @@
         <v>-1</v>
       </c>
       <c r="V103" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W103" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20180423</v>
       </c>
       <c r="B104" t="n">
         <v>7</v>
@@ -7996,17 +7790,15 @@
         <v>-1</v>
       </c>
       <c r="V104" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W104" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20180423</v>
       </c>
       <c r="B105" t="n">
         <v>8</v>
@@ -8069,17 +7861,15 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20180423</v>
       </c>
       <c r="B106" t="n">
         <v>9</v>
@@ -8142,17 +7932,15 @@
         <v>-1</v>
       </c>
       <c r="V106" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W106" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20180423</v>
       </c>
       <c r="B107" t="n">
         <v>10</v>
@@ -8215,17 +8003,15 @@
         <v>-1</v>
       </c>
       <c r="V107" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W107" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20180423</v>
       </c>
       <c r="B108" t="n">
         <v>11</v>
@@ -8288,17 +8074,15 @@
         <v>-1</v>
       </c>
       <c r="V108" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20180423</v>
       </c>
       <c r="B109" t="n">
         <v>12</v>
@@ -8361,17 +8145,15 @@
         <v>-1</v>
       </c>
       <c r="V109" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W109" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20180423</v>
       </c>
       <c r="B110" t="n">
         <v>13</v>
@@ -8434,17 +8216,15 @@
         <v>-1</v>
       </c>
       <c r="V110" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W110" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20180423</v>
       </c>
       <c r="B111" t="n">
         <v>14</v>
@@ -8507,17 +8287,15 @@
         <v>-1</v>
       </c>
       <c r="V111" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W111" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20180423</v>
       </c>
       <c r="B112" t="n">
         <v>15</v>
@@ -8580,17 +8358,15 @@
         <v>-1</v>
       </c>
       <c r="V112" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W112" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>12주(04/23)</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20180423</v>
       </c>
       <c r="B113" t="n">
         <v>16</v>
@@ -8653,17 +8429,15 @@
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20180430</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -8726,17 +8500,15 @@
         <v>-1</v>
       </c>
       <c r="V114" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W114" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20180430</v>
       </c>
       <c r="B115" t="n">
         <v>2</v>
@@ -8806,10 +8578,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20180430</v>
       </c>
       <c r="B116" t="n">
         <v>3</v>
@@ -8872,17 +8642,15 @@
         <v>-1</v>
       </c>
       <c r="V116" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W116" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20180430</v>
       </c>
       <c r="B117" t="n">
         <v>4</v>
@@ -8945,17 +8713,15 @@
         <v>-1</v>
       </c>
       <c r="V117" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W117" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20180430</v>
       </c>
       <c r="B118" t="n">
         <v>5</v>
@@ -9018,17 +8784,15 @@
         <v>-1</v>
       </c>
       <c r="V118" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W118" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20180430</v>
       </c>
       <c r="B119" t="n">
         <v>6</v>
@@ -9091,17 +8855,15 @@
         <v>-1</v>
       </c>
       <c r="V119" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W119" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20180430</v>
       </c>
       <c r="B120" t="n">
         <v>7</v>
@@ -9171,10 +8933,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20180430</v>
       </c>
       <c r="B121" t="n">
         <v>8</v>
@@ -9237,17 +8997,15 @@
         <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W121" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A122" t="n">
+        <v>20180430</v>
       </c>
       <c r="B122" t="n">
         <v>9</v>
@@ -9310,17 +9068,15 @@
         <v>-1</v>
       </c>
       <c r="V122" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W122" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A123" t="n">
+        <v>20180430</v>
       </c>
       <c r="B123" t="n">
         <v>10</v>
@@ -9383,17 +9139,15 @@
         <v>-1</v>
       </c>
       <c r="V123" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W123" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A124" t="n">
+        <v>20180430</v>
       </c>
       <c r="B124" t="n">
         <v>11</v>
@@ -9463,10 +9217,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A125" t="n">
+        <v>20180430</v>
       </c>
       <c r="B125" t="n">
         <v>12</v>
@@ -9529,17 +9281,15 @@
         <v>-1</v>
       </c>
       <c r="V125" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W125" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A126" t="n">
+        <v>20180430</v>
       </c>
       <c r="B126" t="n">
         <v>13</v>
@@ -9602,17 +9352,15 @@
         <v>-1</v>
       </c>
       <c r="V126" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W126" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A127" t="n">
+        <v>20180430</v>
       </c>
       <c r="B127" t="n">
         <v>14</v>
@@ -9675,17 +9423,15 @@
         <v>-1</v>
       </c>
       <c r="V127" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W127" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A128" t="n">
+        <v>20180430</v>
       </c>
       <c r="B128" t="n">
         <v>15</v>
@@ -9755,10 +9501,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>13주(04/30)</t>
-        </is>
+      <c r="A129" t="n">
+        <v>20180430</v>
       </c>
       <c r="B129" t="n">
         <v>16</v>
@@ -9821,17 +9565,15 @@
         <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W129" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A130" t="n">
+        <v>20180507</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -9894,17 +9636,15 @@
         <v>-1</v>
       </c>
       <c r="V130" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W130" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A131" t="n">
+        <v>20180507</v>
       </c>
       <c r="B131" t="n">
         <v>2</v>
@@ -9967,17 +9707,15 @@
         <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W131" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A132" t="n">
+        <v>20180507</v>
       </c>
       <c r="B132" t="n">
         <v>3</v>
@@ -10040,17 +9778,15 @@
         <v>-1</v>
       </c>
       <c r="V132" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W132" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A133" t="n">
+        <v>20180507</v>
       </c>
       <c r="B133" t="n">
         <v>4</v>
@@ -10113,17 +9849,15 @@
         <v>-1</v>
       </c>
       <c r="V133" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W133" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A134" t="n">
+        <v>20180507</v>
       </c>
       <c r="B134" t="n">
         <v>5</v>
@@ -10186,17 +9920,15 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A135" t="n">
+        <v>20180507</v>
       </c>
       <c r="B135" t="n">
         <v>6</v>
@@ -10259,17 +9991,15 @@
         <v>-1</v>
       </c>
       <c r="V135" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W135" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A136" t="n">
+        <v>20180507</v>
       </c>
       <c r="B136" t="n">
         <v>7</v>
@@ -10339,10 +10069,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A137" t="n">
+        <v>20180507</v>
       </c>
       <c r="B137" t="n">
         <v>8</v>
@@ -10405,17 +10133,15 @@
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W137" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A138" t="n">
+        <v>20180507</v>
       </c>
       <c r="B138" t="n">
         <v>9</v>
@@ -10478,17 +10204,15 @@
         <v>-1</v>
       </c>
       <c r="V138" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W138" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A139" t="n">
+        <v>20180507</v>
       </c>
       <c r="B139" t="n">
         <v>10</v>
@@ -10551,17 +10275,15 @@
         <v>-1</v>
       </c>
       <c r="V139" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W139" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A140" t="n">
+        <v>20180507</v>
       </c>
       <c r="B140" t="n">
         <v>11</v>
@@ -10624,17 +10346,15 @@
         <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W140" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A141" t="n">
+        <v>20180507</v>
       </c>
       <c r="B141" t="n">
         <v>12</v>
@@ -10697,17 +10417,15 @@
         <v>-1</v>
       </c>
       <c r="V141" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W141" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A142" t="n">
+        <v>20180507</v>
       </c>
       <c r="B142" t="n">
         <v>13</v>
@@ -10777,10 +10495,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A143" t="n">
+        <v>20180507</v>
       </c>
       <c r="B143" t="n">
         <v>14</v>
@@ -10843,17 +10559,15 @@
         <v>0</v>
       </c>
       <c r="V143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A144" t="n">
+        <v>20180507</v>
       </c>
       <c r="B144" t="n">
         <v>15</v>
@@ -10916,17 +10630,15 @@
         <v>0</v>
       </c>
       <c r="V144" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W144" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>14주(05/07)</t>
-        </is>
+      <c r="A145" t="n">
+        <v>20180507</v>
       </c>
       <c r="B145" t="n">
         <v>16</v>
@@ -10989,17 +10701,15 @@
         <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A146" t="n">
+        <v>20180514</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -11069,10 +10779,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A147" t="n">
+        <v>20180514</v>
       </c>
       <c r="B147" t="n">
         <v>2</v>
@@ -11135,17 +10843,15 @@
         <v>-1</v>
       </c>
       <c r="V147" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W147" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A148" t="n">
+        <v>20180514</v>
       </c>
       <c r="B148" t="n">
         <v>3</v>
@@ -11208,17 +10914,15 @@
         <v>0</v>
       </c>
       <c r="V148" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W148" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A149" t="n">
+        <v>20180514</v>
       </c>
       <c r="B149" t="n">
         <v>4</v>
@@ -11288,10 +10992,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A150" t="n">
+        <v>20180514</v>
       </c>
       <c r="B150" t="n">
         <v>5</v>
@@ -11354,17 +11056,15 @@
         <v>1</v>
       </c>
       <c r="V150" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W150" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A151" t="n">
+        <v>20180514</v>
       </c>
       <c r="B151" t="n">
         <v>6</v>
@@ -11427,17 +11127,15 @@
         <v>-1</v>
       </c>
       <c r="V151" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W151" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A152" t="n">
+        <v>20180514</v>
       </c>
       <c r="B152" t="n">
         <v>7</v>
@@ -11500,17 +11198,15 @@
         <v>-1</v>
       </c>
       <c r="V152" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W152" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A153" t="n">
+        <v>20180514</v>
       </c>
       <c r="B153" t="n">
         <v>8</v>
@@ -11580,10 +11276,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A154" t="n">
+        <v>20180514</v>
       </c>
       <c r="B154" t="n">
         <v>9</v>
@@ -11646,17 +11340,15 @@
         <v>-1</v>
       </c>
       <c r="V154" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W154" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A155" t="n">
+        <v>20180514</v>
       </c>
       <c r="B155" t="n">
         <v>10</v>
@@ -11726,10 +11418,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A156" t="n">
+        <v>20180514</v>
       </c>
       <c r="B156" t="n">
         <v>11</v>
@@ -11792,17 +11482,15 @@
         <v>0</v>
       </c>
       <c r="V156" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W156" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A157" t="n">
+        <v>20180514</v>
       </c>
       <c r="B157" t="n">
         <v>12</v>
@@ -11865,17 +11553,15 @@
         <v>0</v>
       </c>
       <c r="V157" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A158" t="n">
+        <v>20180514</v>
       </c>
       <c r="B158" t="n">
         <v>13</v>
@@ -11938,17 +11624,15 @@
         <v>-1</v>
       </c>
       <c r="V158" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="W158" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A159" t="n">
+        <v>20180514</v>
       </c>
       <c r="B159" t="n">
         <v>14</v>
@@ -12011,17 +11695,15 @@
         <v>0</v>
       </c>
       <c r="V159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A160" t="n">
+        <v>20180514</v>
       </c>
       <c r="B160" t="n">
         <v>15</v>
@@ -12084,17 +11766,15 @@
         <v>0</v>
       </c>
       <c r="V160" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W160" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>15주(05/14)</t>
-        </is>
+      <c r="A161" t="n">
+        <v>20180514</v>
       </c>
       <c r="B161" t="n">
         <v>16</v>
@@ -12157,17 +11837,15 @@
         <v>0</v>
       </c>
       <c r="V161" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W161" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A162" t="n">
+        <v>20180521</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -12230,17 +11908,15 @@
         <v>-1</v>
       </c>
       <c r="V162" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W162" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A163" t="n">
+        <v>20180521</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -12310,10 +11986,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A164" t="n">
+        <v>20180521</v>
       </c>
       <c r="B164" t="n">
         <v>3</v>
@@ -12383,10 +12057,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A165" t="n">
+        <v>20180521</v>
       </c>
       <c r="B165" t="n">
         <v>4</v>
@@ -12456,10 +12128,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A166" t="n">
+        <v>20180521</v>
       </c>
       <c r="B166" t="n">
         <v>5</v>
@@ -12529,10 +12199,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A167" t="n">
+        <v>20180521</v>
       </c>
       <c r="B167" t="n">
         <v>6</v>
@@ -12602,10 +12270,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A168" t="n">
+        <v>20180521</v>
       </c>
       <c r="B168" t="n">
         <v>7</v>
@@ -12675,10 +12341,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A169" t="n">
+        <v>20180521</v>
       </c>
       <c r="B169" t="n">
         <v>8</v>
@@ -12748,10 +12412,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A170" t="n">
+        <v>20180521</v>
       </c>
       <c r="B170" t="n">
         <v>9</v>
@@ -12814,17 +12476,15 @@
         <v>0</v>
       </c>
       <c r="V170" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W170" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A171" t="n">
+        <v>20180521</v>
       </c>
       <c r="B171" t="n">
         <v>10</v>
@@ -12887,17 +12547,15 @@
         <v>-1</v>
       </c>
       <c r="V171" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W171" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A172" t="n">
+        <v>20180521</v>
       </c>
       <c r="B172" t="n">
         <v>11</v>
@@ -12960,17 +12618,15 @@
         <v>1</v>
       </c>
       <c r="V172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W172" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A173" t="n">
+        <v>20180521</v>
       </c>
       <c r="B173" t="n">
         <v>12</v>
@@ -13033,17 +12689,15 @@
         <v>0</v>
       </c>
       <c r="V173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A174" t="n">
+        <v>20180521</v>
       </c>
       <c r="B174" t="n">
         <v>13</v>
@@ -13106,17 +12760,15 @@
         <v>1</v>
       </c>
       <c r="V174" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W174" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A175" t="n">
+        <v>20180521</v>
       </c>
       <c r="B175" t="n">
         <v>14</v>
@@ -13179,17 +12831,15 @@
         <v>-1</v>
       </c>
       <c r="V175" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W175" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A176" t="n">
+        <v>20180521</v>
       </c>
       <c r="B176" t="n">
         <v>15</v>
@@ -13252,17 +12902,15 @@
         <v>0</v>
       </c>
       <c r="V176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>16주(05/21)</t>
-        </is>
+      <c r="A177" t="n">
+        <v>20180521</v>
       </c>
       <c r="B177" t="n">
         <v>16</v>
@@ -13325,17 +12973,15 @@
         <v>-1</v>
       </c>
       <c r="V177" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W177" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A178" t="n">
+        <v>20180528</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -13405,10 +13051,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A179" t="n">
+        <v>20180528</v>
       </c>
       <c r="B179" t="n">
         <v>2</v>
@@ -13478,10 +13122,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A180" t="n">
+        <v>20180528</v>
       </c>
       <c r="B180" t="n">
         <v>3</v>
@@ -13551,10 +13193,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A181" t="n">
+        <v>20180528</v>
       </c>
       <c r="B181" t="n">
         <v>4</v>
@@ -13624,10 +13264,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A182" t="n">
+        <v>20180528</v>
       </c>
       <c r="B182" t="n">
         <v>5</v>
@@ -13697,10 +13335,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A183" t="n">
+        <v>20180528</v>
       </c>
       <c r="B183" t="n">
         <v>6</v>
@@ -13770,10 +13406,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A184" t="n">
+        <v>20180528</v>
       </c>
       <c r="B184" t="n">
         <v>7</v>
@@ -13843,10 +13477,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A185" t="n">
+        <v>20180528</v>
       </c>
       <c r="B185" t="n">
         <v>8</v>
@@ -13916,10 +13548,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A186" t="n">
+        <v>20180528</v>
       </c>
       <c r="B186" t="n">
         <v>9</v>
@@ -13989,10 +13619,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A187" t="n">
+        <v>20180528</v>
       </c>
       <c r="B187" t="n">
         <v>10</v>
@@ -14062,10 +13690,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A188" t="n">
+        <v>20180528</v>
       </c>
       <c r="B188" t="n">
         <v>11</v>
@@ -14128,17 +13754,15 @@
         <v>1</v>
       </c>
       <c r="V188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A189" t="n">
+        <v>20180528</v>
       </c>
       <c r="B189" t="n">
         <v>12</v>
@@ -14201,17 +13825,15 @@
         <v>0</v>
       </c>
       <c r="V189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A190" t="n">
+        <v>20180528</v>
       </c>
       <c r="B190" t="n">
         <v>13</v>
@@ -14281,10 +13903,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A191" t="n">
+        <v>20180528</v>
       </c>
       <c r="B191" t="n">
         <v>14</v>
@@ -14347,17 +13967,15 @@
         <v>1</v>
       </c>
       <c r="V191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A192" t="n">
+        <v>20180528</v>
       </c>
       <c r="B192" t="n">
         <v>15</v>
@@ -14420,17 +14038,15 @@
         <v>0</v>
       </c>
       <c r="V192" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W192" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>17주(05/28)</t>
-        </is>
+      <c r="A193" t="n">
+        <v>20180528</v>
       </c>
       <c r="B193" t="n">
         <v>16</v>
@@ -14493,17 +14109,15 @@
         <v>0</v>
       </c>
       <c r="V193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A194" t="n">
+        <v>20180604</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -14573,10 +14187,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A195" t="n">
+        <v>20180604</v>
       </c>
       <c r="B195" t="n">
         <v>2</v>
@@ -14646,10 +14258,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A196" t="n">
+        <v>20180604</v>
       </c>
       <c r="B196" t="n">
         <v>3</v>
@@ -14719,10 +14329,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A197" t="n">
+        <v>20180604</v>
       </c>
       <c r="B197" t="n">
         <v>4</v>
@@ -14792,10 +14400,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A198" t="n">
+        <v>20180604</v>
       </c>
       <c r="B198" t="n">
         <v>5</v>
@@ -14865,10 +14471,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A199" t="n">
+        <v>20180604</v>
       </c>
       <c r="B199" t="n">
         <v>6</v>
@@ -14938,10 +14542,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A200" t="n">
+        <v>20180604</v>
       </c>
       <c r="B200" t="n">
         <v>7</v>
@@ -15011,10 +14613,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A201" t="n">
+        <v>20180604</v>
       </c>
       <c r="B201" t="n">
         <v>8</v>
@@ -15084,10 +14684,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A202" t="n">
+        <v>20180604</v>
       </c>
       <c r="B202" t="n">
         <v>9</v>
@@ -15157,10 +14755,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A203" t="n">
+        <v>20180604</v>
       </c>
       <c r="B203" t="n">
         <v>10</v>
@@ -15230,10 +14826,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A204" t="n">
+        <v>20180604</v>
       </c>
       <c r="B204" t="n">
         <v>11</v>
@@ -15303,10 +14897,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A205" t="n">
+        <v>20180604</v>
       </c>
       <c r="B205" t="n">
         <v>12</v>
@@ -15376,10 +14968,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A206" t="n">
+        <v>20180604</v>
       </c>
       <c r="B206" t="n">
         <v>13</v>
@@ -15449,10 +15039,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A207" t="n">
+        <v>20180604</v>
       </c>
       <c r="B207" t="n">
         <v>14</v>
@@ -15522,10 +15110,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A208" t="n">
+        <v>20180604</v>
       </c>
       <c r="B208" t="n">
         <v>15</v>
@@ -15595,10 +15181,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>18주(06/04)</t>
-        </is>
+      <c r="A209" t="n">
+        <v>20180604</v>
       </c>
       <c r="B209" t="n">
         <v>16</v>
@@ -15668,10 +15252,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A210" t="n">
+        <v>20180611</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -15741,10 +15323,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A211" t="n">
+        <v>20180611</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -15814,10 +15394,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A212" t="n">
+        <v>20180611</v>
       </c>
       <c r="B212" t="n">
         <v>3</v>
@@ -15887,10 +15465,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A213" t="n">
+        <v>20180611</v>
       </c>
       <c r="B213" t="n">
         <v>4</v>
@@ -15960,10 +15536,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A214" t="n">
+        <v>20180611</v>
       </c>
       <c r="B214" t="n">
         <v>5</v>
@@ -16033,10 +15607,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A215" t="n">
+        <v>20180611</v>
       </c>
       <c r="B215" t="n">
         <v>6</v>
@@ -16106,10 +15678,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A216" t="n">
+        <v>20180611</v>
       </c>
       <c r="B216" t="n">
         <v>7</v>
@@ -16179,10 +15749,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A217" t="n">
+        <v>20180611</v>
       </c>
       <c r="B217" t="n">
         <v>8</v>
@@ -16252,10 +15820,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A218" t="n">
+        <v>20180611</v>
       </c>
       <c r="B218" t="n">
         <v>9</v>
@@ -16325,10 +15891,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A219" t="n">
+        <v>20180611</v>
       </c>
       <c r="B219" t="n">
         <v>10</v>
@@ -16398,10 +15962,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A220" t="n">
+        <v>20180611</v>
       </c>
       <c r="B220" t="n">
         <v>11</v>
@@ -16471,10 +16033,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A221" t="n">
+        <v>20180611</v>
       </c>
       <c r="B221" t="n">
         <v>12</v>
@@ -16544,10 +16104,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A222" t="n">
+        <v>20180611</v>
       </c>
       <c r="B222" t="n">
         <v>13</v>
@@ -16617,10 +16175,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A223" t="n">
+        <v>20180611</v>
       </c>
       <c r="B223" t="n">
         <v>14</v>
@@ -16690,10 +16246,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A224" t="n">
+        <v>20180611</v>
       </c>
       <c r="B224" t="n">
         <v>15</v>
@@ -16763,10 +16317,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>19주(06/11)</t>
-        </is>
+      <c r="A225" t="n">
+        <v>20180611</v>
       </c>
       <c r="B225" t="n">
         <v>16</v>
@@ -16836,10 +16388,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A226" t="n">
+        <v>20180618</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -16909,10 +16459,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A227" t="n">
+        <v>20180618</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -16982,10 +16530,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A228" t="n">
+        <v>20180618</v>
       </c>
       <c r="B228" t="n">
         <v>3</v>
@@ -17055,10 +16601,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A229" t="n">
+        <v>20180618</v>
       </c>
       <c r="B229" t="n">
         <v>4</v>
@@ -17128,10 +16672,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A230" t="n">
+        <v>20180618</v>
       </c>
       <c r="B230" t="n">
         <v>5</v>
@@ -17201,10 +16743,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A231" t="n">
+        <v>20180618</v>
       </c>
       <c r="B231" t="n">
         <v>6</v>
@@ -17274,10 +16814,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A232" t="n">
+        <v>20180618</v>
       </c>
       <c r="B232" t="n">
         <v>7</v>
@@ -17347,10 +16885,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A233" t="n">
+        <v>20180618</v>
       </c>
       <c r="B233" t="n">
         <v>8</v>
@@ -17420,10 +16956,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A234" t="n">
+        <v>20180618</v>
       </c>
       <c r="B234" t="n">
         <v>9</v>
@@ -17493,10 +17027,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A235" t="n">
+        <v>20180618</v>
       </c>
       <c r="B235" t="n">
         <v>10</v>
@@ -17566,10 +17098,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A236" t="n">
+        <v>20180618</v>
       </c>
       <c r="B236" t="n">
         <v>11</v>
@@ -17639,10 +17169,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A237" t="n">
+        <v>20180618</v>
       </c>
       <c r="B237" t="n">
         <v>12</v>
@@ -17712,10 +17240,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A238" t="n">
+        <v>20180618</v>
       </c>
       <c r="B238" t="n">
         <v>13</v>
@@ -17785,10 +17311,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A239" t="n">
+        <v>20180618</v>
       </c>
       <c r="B239" t="n">
         <v>14</v>
@@ -17858,10 +17382,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A240" t="n">
+        <v>20180618</v>
       </c>
       <c r="B240" t="n">
         <v>15</v>
@@ -17931,10 +17453,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>20주(06/18)</t>
-        </is>
+      <c r="A241" t="n">
+        <v>20180618</v>
       </c>
       <c r="B241" t="n">
         <v>16</v>
